--- a/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>110066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93511</v>
+        <v>92995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129113</v>
+        <v>130686</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2303427805206771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1956968274459209</v>
+        <v>0.1946160577859551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2702027446610861</v>
+        <v>0.2734939334337121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -765,19 +765,19 @@
         <v>141453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123355</v>
+        <v>121607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>165970</v>
+        <v>160666</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2628732278421106</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2292408189480471</v>
+        <v>0.2259909899691518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3084339729260032</v>
+        <v>0.2985788017677033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>251</v>
@@ -786,19 +786,19 @@
         <v>251519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>224696</v>
+        <v>226305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>280845</v>
+        <v>282809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2475728695507639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2211699081946067</v>
+        <v>0.2227544183807546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2764381132684655</v>
+        <v>0.2783718281877951</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>367771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>348724</v>
+        <v>347151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>384326</v>
+        <v>384842</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7696572194793229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7297972553389138</v>
+        <v>0.7265060665662874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8043031725540791</v>
+        <v>0.8053839422140449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -836,19 +836,19 @@
         <v>396651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>372134</v>
+        <v>377438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>414749</v>
+        <v>416497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7371267721578894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6915660270739968</v>
+        <v>0.7014211982322966</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7707591810519528</v>
+        <v>0.7740090100308482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>765</v>
@@ -857,19 +857,19 @@
         <v>764422</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735096</v>
+        <v>733132</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>791245</v>
+        <v>789636</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.752427130449236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7235618867315343</v>
+        <v>0.721628171812205</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7788300918053924</v>
+        <v>0.7772455816192455</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>216836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>192068</v>
+        <v>190986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>243074</v>
+        <v>244474</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3002730087740455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2659744106591085</v>
+        <v>0.2644771960914638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3366085732429706</v>
+        <v>0.3385472364744588</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>249</v>
@@ -982,19 +982,19 @@
         <v>262728</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>238084</v>
+        <v>236054</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>289399</v>
+        <v>289687</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3266848906629214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.296041409429158</v>
+        <v>0.2935174798938962</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3598478878134215</v>
+        <v>0.3602061340537764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>446</v>
@@ -1003,19 +1003,19 @@
         <v>479564</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>438553</v>
+        <v>444301</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>514405</v>
+        <v>516381</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3141892611786772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2873203149371542</v>
+        <v>0.291086695225307</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3370156534935987</v>
+        <v>0.3383102644643708</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>505292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479054</v>
+        <v>477654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>530060</v>
+        <v>531142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6997269912259545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6633914267570293</v>
+        <v>0.6614527635255413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7340255893408916</v>
+        <v>0.7355228039085363</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>507</v>
@@ -1053,19 +1053,19 @@
         <v>541498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514827</v>
+        <v>514539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>566142</v>
+        <v>568172</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6733151093370786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6401521121865779</v>
+        <v>0.6397938659462237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7039585905708418</v>
+        <v>0.7064825201061036</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>978</v>
@@ -1074,19 +1074,19 @@
         <v>1046790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1011949</v>
+        <v>1009973</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1087801</v>
+        <v>1082053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6858107388213228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6629843465064015</v>
+        <v>0.6616897355356293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7126796850628458</v>
+        <v>0.7089133047746931</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>156139</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136622</v>
+        <v>135430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178983</v>
+        <v>178097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2864460829914015</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2506415958645784</v>
+        <v>0.2484542751821796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3283563575894181</v>
+        <v>0.3267300303211423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -1199,19 +1199,19 @@
         <v>162393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141911</v>
+        <v>137547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184711</v>
+        <v>182400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2777798565635209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2427458060395701</v>
+        <v>0.2352797866831526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3159572871665533</v>
+        <v>0.3120035435618313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>314</v>
@@ -1220,7 +1220,7 @@
         <v>318531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>289906</v>
+        <v>287943</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>348011</v>
@@ -1229,10 +1229,10 @@
         <v>0.281961385681735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2566229890672309</v>
+        <v>0.2548852625939616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3080564703046995</v>
+        <v>0.3080566951595943</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>388950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>366106</v>
+        <v>366992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>408467</v>
+        <v>409659</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7135539170085985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6716436424105818</v>
+        <v>0.6732699696788577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7493584041354215</v>
+        <v>0.7515457248178202</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>432</v>
@@ -1270,19 +1270,19 @@
         <v>422216</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>399898</v>
+        <v>402209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>442698</v>
+        <v>447062</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7222201434364791</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6840427128334468</v>
+        <v>0.6879964564381688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7572541939604298</v>
+        <v>0.7647202133168474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>797</v>
@@ -1294,16 +1294,16 @@
         <v>781687</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>839792</v>
+        <v>841755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.718038614318265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6919435296953004</v>
+        <v>0.6919433048404051</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7433770109327691</v>
+        <v>0.7451147374060383</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>249290</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224234</v>
+        <v>227039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>275093</v>
+        <v>276563</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3505252705488419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3152930572890814</v>
+        <v>0.3192379369785025</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3868067428949715</v>
+        <v>0.3888724008408863</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>281</v>
@@ -1416,19 +1416,19 @@
         <v>293490</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>264578</v>
+        <v>265362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>319914</v>
+        <v>322100</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3609663621029293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3254075764682515</v>
+        <v>0.3263711603825187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3934653051089342</v>
+        <v>0.3961539744322931</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>541</v>
@@ -1437,19 +1437,19 @@
         <v>542781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>506476</v>
+        <v>503870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>580966</v>
+        <v>577656</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3560947390331872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3322770485030878</v>
+        <v>0.3305673998146805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3811467705845981</v>
+        <v>0.378974677255571</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>461901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436098</v>
+        <v>434628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>486957</v>
+        <v>484152</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6494747294511581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6131932571050283</v>
+        <v>0.6111275991591136</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6847069427109184</v>
+        <v>0.6807620630214974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>499</v>
@@ -1487,19 +1487,19 @@
         <v>519577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>493153</v>
+        <v>490967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>548489</v>
+        <v>547705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6390336378970707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6065346948910658</v>
+        <v>0.6038460255677069</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6745924235317486</v>
+        <v>0.6736288396174813</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>994</v>
@@ -1508,19 +1508,19 @@
         <v>981478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>943293</v>
+        <v>946603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1017783</v>
+        <v>1020389</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6439052609668128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6188532294154019</v>
+        <v>0.6210253227444289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6677229514969121</v>
+        <v>0.6694326001853195</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>732331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>685686</v>
+        <v>687084</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>781512</v>
+        <v>778086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2981505877052048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2791603656560006</v>
+        <v>0.2797294812321364</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3181734517913822</v>
+        <v>0.3167788364700802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>839</v>
@@ -1633,19 +1633,19 @@
         <v>860064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>812745</v>
+        <v>808493</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>912029</v>
+        <v>905981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3138913274493892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2966215097468581</v>
+        <v>0.2950697197079569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3328566081873888</v>
+        <v>0.330649202192282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1552</v>
@@ -1654,19 +1654,19 @@
         <v>1592395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1525362</v>
+        <v>1528448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1663069</v>
+        <v>1657594</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3064507485432453</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2935505156213891</v>
+        <v>0.2941442396808467</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3200516812709652</v>
+        <v>0.3189980000893584</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1723914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1674733</v>
+        <v>1678159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1770559</v>
+        <v>1769161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7018494122947952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6818265482086178</v>
+        <v>0.68322116352992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7208396343439993</v>
+        <v>0.7202705187678636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1839</v>
@@ -1704,19 +1704,19 @@
         <v>1879942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1827977</v>
+        <v>1834025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1927261</v>
+        <v>1931513</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6861086725506108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.667143391812611</v>
+        <v>0.6693507978077184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7033784902531418</v>
+        <v>0.7049302802920434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3534</v>
@@ -1725,19 +1725,19 @@
         <v>3603857</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3533183</v>
+        <v>3538658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3670890</v>
+        <v>3667804</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6935492514567546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6799483187290348</v>
+        <v>0.6810019999106416</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7064494843786109</v>
+        <v>0.7058557603191533</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>132581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112546</v>
+        <v>111437</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154805</v>
+        <v>154371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2187982664351661</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1857348386621113</v>
+        <v>0.1839050945551028</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2554749015754392</v>
+        <v>0.2547575288162524</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -2090,19 +2090,19 @@
         <v>205580</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181891</v>
+        <v>182529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229093</v>
+        <v>230982</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3233409371585806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2860816341422958</v>
+        <v>0.2870852954844322</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.360322235996125</v>
+        <v>0.3632933184065671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>318</v>
@@ -2111,19 +2111,19 @@
         <v>338162</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>304814</v>
+        <v>305513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>369503</v>
+        <v>367718</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2723261387225445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2454711242675442</v>
+        <v>0.2460338697876864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2975658391500444</v>
+        <v>0.2961282587842632</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>473370</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451146</v>
+        <v>451580</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493405</v>
+        <v>494514</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7812017335648338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7445250984245606</v>
+        <v>0.7452424711837476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8142651613378887</v>
+        <v>0.8160949054448972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -2161,19 +2161,19 @@
         <v>430221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>406708</v>
+        <v>404819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>453910</v>
+        <v>453272</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6766590628414193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.639677764003875</v>
+        <v>0.6367066815934329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7139183658577045</v>
+        <v>0.7129147045155678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>855</v>
@@ -2182,19 +2182,19 @@
         <v>903590</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>872249</v>
+        <v>874034</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>936938</v>
+        <v>936239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7276738612774555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7024341608499558</v>
+        <v>0.7038717412157367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7545288757324561</v>
+        <v>0.7539661302123135</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>257952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>228121</v>
+        <v>230751</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285278</v>
+        <v>289973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2975233640765266</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2631163794809029</v>
+        <v>0.2661497351275941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3290406163147195</v>
+        <v>0.3344563556728816</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>275</v>
@@ -2307,19 +2307,19 @@
         <v>299201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>271854</v>
+        <v>272415</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>329614</v>
+        <v>331572</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3328925537932866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3024654358814345</v>
+        <v>0.3030892936705263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3667298572143965</v>
+        <v>0.3689076749001312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>512</v>
@@ -2328,19 +2328,19 @@
         <v>557154</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>516890</v>
+        <v>517347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>596159</v>
+        <v>597954</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.315526391947525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2927243111191433</v>
+        <v>0.292983149634803</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3376158520515158</v>
+        <v>0.3386321041169822</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>609046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581720</v>
+        <v>577025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>638877</v>
+        <v>636247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7024766359234733</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6709593836852804</v>
+        <v>0.6655436443271184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7368836205190968</v>
+        <v>0.7338502648724059</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>546</v>
@@ -2378,19 +2378,19 @@
         <v>599592</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>569179</v>
+        <v>567221</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>626939</v>
+        <v>626378</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6671074462067135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6332701427856035</v>
+        <v>0.6310923250998688</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6975345641185654</v>
+        <v>0.6969107063294737</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1108</v>
@@ -2399,19 +2399,19 @@
         <v>1208638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1169633</v>
+        <v>1167838</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1248902</v>
+        <v>1248445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.684473608052475</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.662384147948484</v>
+        <v>0.6613678958830173</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7072756888808561</v>
+        <v>0.7070168503651969</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>203686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180191</v>
+        <v>177880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229683</v>
+        <v>228190</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3202443681688408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2833038521261504</v>
+        <v>0.2796702647699819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3611182148219377</v>
+        <v>0.3587704431421726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>200</v>
@@ -2524,19 +2524,19 @@
         <v>220068</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>192591</v>
+        <v>193812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>243403</v>
+        <v>244076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3248245546155212</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2842677709883983</v>
+        <v>0.2860691525609342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3592669747191323</v>
+        <v>0.3602601985634579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>385</v>
@@ -2545,19 +2545,19 @@
         <v>423754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>388390</v>
+        <v>393154</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>458342</v>
+        <v>463246</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3226067558436913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2956837533477121</v>
+        <v>0.2993108920720841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3489383994913476</v>
+        <v>0.3526721907675104</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>432347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>406350</v>
+        <v>407843</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455842</v>
+        <v>458153</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6797556318311593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6388817851780624</v>
+        <v>0.6412295568578276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7166961478738498</v>
+        <v>0.7203297352300189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>414</v>
@@ -2595,19 +2595,19 @@
         <v>457431</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>434096</v>
+        <v>433423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>484908</v>
+        <v>483687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6751754453844788</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6407330252808677</v>
+        <v>0.6397398014365421</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7157322290116017</v>
+        <v>0.7139308474390658</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>811</v>
@@ -2616,19 +2616,19 @@
         <v>889778</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>855190</v>
+        <v>850286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>925142</v>
+        <v>920378</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6773932441563087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6510616005086525</v>
+        <v>0.64732780923249</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.704316246652288</v>
+        <v>0.7006891079279159</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>263549</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>236440</v>
+        <v>238318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292311</v>
+        <v>292832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3271147855589481</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2934678543252258</v>
+        <v>0.2957990173696857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3628149658780446</v>
+        <v>0.3634614099123127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>332</v>
@@ -2741,19 +2741,19 @@
         <v>351763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322152</v>
+        <v>320978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>381219</v>
+        <v>384090</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3769419177364054</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3452121127567556</v>
+        <v>0.3439535481018567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4085065138044899</v>
+        <v>0.411583729398827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>584</v>
@@ -2762,19 +2762,19 @@
         <v>615311</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>571011</v>
+        <v>576940</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>656464</v>
+        <v>654471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.353855445595607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3283790852914384</v>
+        <v>0.3317887577280231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3775220379336288</v>
+        <v>0.3763757772100341</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>542127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>513365</v>
+        <v>512844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>569236</v>
+        <v>567358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6728852144410519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6371850341219554</v>
+        <v>0.6365385900876873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7065321456747741</v>
+        <v>0.7042009826303144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>555</v>
@@ -2812,19 +2812,19 @@
         <v>581438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>551982</v>
+        <v>549111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611049</v>
+        <v>612223</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6230580822635946</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5914934861955102</v>
+        <v>0.588416270601173</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6547878872432444</v>
+        <v>0.6560464518981433</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1077</v>
@@ -2833,19 +2833,19 @@
         <v>1123566</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1082413</v>
+        <v>1084406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1167866</v>
+        <v>1161937</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.646144554404393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6224779620663713</v>
+        <v>0.623624222789966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6716209147085616</v>
+        <v>0.6682112422719771</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>857768</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>809319</v>
+        <v>807332</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>909252</v>
+        <v>911963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2942944623819768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2776719134491493</v>
+        <v>0.276990284205782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3119583184025893</v>
+        <v>0.3128883131519708</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>998</v>
@@ -2958,19 +2958,19 @@
         <v>1076613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1015211</v>
+        <v>1023692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1132705</v>
+        <v>1132972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3422932368269344</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3227712233560475</v>
+        <v>0.3254677268507369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3601267187145408</v>
+        <v>0.3602115577954447</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1799</v>
@@ -2979,19 +2979,19 @@
         <v>1934381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1860693</v>
+        <v>1866330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2012370</v>
+        <v>2013530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3192072433900422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3070473860152975</v>
+        <v>0.3079776473292895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3320768718290228</v>
+        <v>0.332268222296162</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2056891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2005407</v>
+        <v>2002696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2105340</v>
+        <v>2107327</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7057055376180232</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6880416815974109</v>
+        <v>0.6871116868480294</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7223280865508507</v>
+        <v>0.723009715794218</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1916</v>
@@ -3029,19 +3029,19 @@
         <v>2068682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2012590</v>
+        <v>2012323</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2130084</v>
+        <v>2121603</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6577067631730655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6398732812854592</v>
+        <v>0.6397884422045553</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6772287766439525</v>
+        <v>0.6745322731492631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3851</v>
@@ -3050,19 +3050,19 @@
         <v>4125572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4047583</v>
+        <v>4046423</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4199260</v>
+        <v>4193623</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6807927566099577</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6679231281709773</v>
+        <v>0.6677317777038383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6929526139847025</v>
+        <v>0.6920223526707105</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>183778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162699</v>
+        <v>161894</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>207252</v>
+        <v>207243</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3500580552314053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3099073376619905</v>
+        <v>0.3083726923262922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3947717007676109</v>
+        <v>0.394754004329089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>219</v>
@@ -3415,19 +3415,19 @@
         <v>217580</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195474</v>
+        <v>194166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240821</v>
+        <v>237372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3996967915607481</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3590884604289211</v>
+        <v>0.3566852551636592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4423897980292416</v>
+        <v>0.4360548273399114</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>398</v>
@@ -3436,19 +3436,19 @@
         <v>401358</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>368756</v>
+        <v>369937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>432320</v>
+        <v>432343</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3753269888719614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3448389354942193</v>
+        <v>0.3459439756800444</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4042808459738018</v>
+        <v>0.4043026732125179</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>341215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>317741</v>
+        <v>317750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362294</v>
+        <v>363099</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6499419447685947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6052282992323892</v>
+        <v>0.6052459956709112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6900926623380099</v>
+        <v>0.6916273076737078</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -3486,19 +3486,19 @@
         <v>326783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303542</v>
+        <v>306991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>348889</v>
+        <v>350197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.600303208439252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5576102019707584</v>
+        <v>0.5639451726600887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6409115395710788</v>
+        <v>0.6433147448363408</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -3507,19 +3507,19 @@
         <v>667998</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>637036</v>
+        <v>637013</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>700600</v>
+        <v>699419</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6246730111280385</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5957191540261982</v>
+        <v>0.595697326787482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6551610645057807</v>
+        <v>0.6540560243199552</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>332161</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304333</v>
+        <v>303262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>363458</v>
+        <v>362810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4068878845499251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3727991117714161</v>
+        <v>0.3714866855414479</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4452249450332815</v>
+        <v>0.4444314042940553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>345</v>
@@ -3632,19 +3632,19 @@
         <v>357344</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>330685</v>
+        <v>325927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>388262</v>
+        <v>386778</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4124593238902571</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3816885730472248</v>
+        <v>0.3761968829696554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4481462394478939</v>
+        <v>0.4464334527521922</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>653</v>
@@ -3653,19 +3653,19 @@
         <v>689505</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>649047</v>
+        <v>653290</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>728431</v>
+        <v>732655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4097564242873846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3857130992367979</v>
+        <v>0.3882349502021502</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4328891722045806</v>
+        <v>0.4353992592235255</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>484185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452888</v>
+        <v>453536</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512013</v>
+        <v>513084</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5931121154500749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5547750549667185</v>
+        <v>0.5555685957059447</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6272008882285839</v>
+        <v>0.6285133144585523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -3703,19 +3703,19 @@
         <v>509029</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478111</v>
+        <v>479595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>535688</v>
+        <v>540446</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5875406761097429</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.551853760552106</v>
+        <v>0.5535665472478077</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6183114269527751</v>
+        <v>0.6238031170303445</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>919</v>
@@ -3724,19 +3724,19 @@
         <v>993214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>954288</v>
+        <v>950064</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1033672</v>
+        <v>1029429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5902435757126153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.567110827795419</v>
+        <v>0.5646007407764745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6142869007632019</v>
+        <v>0.6117650497978498</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>214090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192747</v>
+        <v>190738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>238880</v>
+        <v>236807</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3890001343006809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3502198093170205</v>
+        <v>0.3465698365722332</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.434043363934941</v>
+        <v>0.4302759855309778</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -3849,19 +3849,19 @@
         <v>247820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226560</v>
+        <v>225467</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271461</v>
+        <v>272133</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4274683193496796</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.390797043837894</v>
+        <v>0.3889122128734325</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4682479103083284</v>
+        <v>0.4694073113485557</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>433</v>
@@ -3870,19 +3870,19 @@
         <v>461910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>428648</v>
+        <v>427326</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>494931</v>
+        <v>494722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4087342336624183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3793018812324249</v>
+        <v>0.3781314419349765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4379541560071534</v>
+        <v>0.4377690088098217</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>336270</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311480</v>
+        <v>313553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>357613</v>
+        <v>359622</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6109998656993191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5659566360650591</v>
+        <v>0.5697240144690222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6497801906829794</v>
+        <v>0.6534301634277669</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -3920,19 +3920,19 @@
         <v>331918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308277</v>
+        <v>307605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>353178</v>
+        <v>354271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5725316806503203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5317520896916716</v>
+        <v>0.5305926886514447</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6092029561621062</v>
+        <v>0.6110877871265675</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>620</v>
@@ -3941,19 +3941,19 @@
         <v>668188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>635167</v>
+        <v>635376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>701450</v>
+        <v>702772</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5912657663375818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5620458439928468</v>
+        <v>0.5622309911901783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6206981187675753</v>
+        <v>0.6218685580650234</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>356375</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>331042</v>
+        <v>325659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>384543</v>
+        <v>383664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.461246057993487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4284579839865582</v>
+        <v>0.4214909224335788</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4977034451362811</v>
+        <v>0.4965650092728222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>394</v>
@@ -4066,19 +4066,19 @@
         <v>420929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>388394</v>
+        <v>391762</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>450356</v>
+        <v>454192</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4800521669047429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4429468677756798</v>
+        <v>0.4467882495101159</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5136115658000108</v>
+        <v>0.5179864650091336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>748</v>
@@ -4087,19 +4087,19 @@
         <v>777304</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>737898</v>
+        <v>736641</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>822075</v>
+        <v>821081</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4712431556635268</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4473527308997587</v>
+        <v>0.4465910693934537</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4983852466338018</v>
+        <v>0.4977831452811368</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>416260</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>388092</v>
+        <v>388971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>441593</v>
+        <v>446976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5387539420065129</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5022965548637189</v>
+        <v>0.5034349907271778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5715420160134421</v>
+        <v>0.5785090775664212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -4137,19 +4137,19 @@
         <v>455912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>426485</v>
+        <v>422649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>488447</v>
+        <v>485079</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5199478330952572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4863884341999892</v>
+        <v>0.4820135349908664</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5570531322243202</v>
+        <v>0.553211750489884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>833</v>
@@ -4158,19 +4158,19 @@
         <v>872172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>827401</v>
+        <v>828395</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>911578</v>
+        <v>912835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5287568443364732</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5016147533661982</v>
+        <v>0.5022168547188632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5526472691002415</v>
+        <v>0.5534089306065464</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1086404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1034513</v>
+        <v>1034027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1136373</v>
+        <v>1141847</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4077582905099349</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3882823218108031</v>
+        <v>0.388099892840855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4265129713493905</v>
+        <v>0.4285677614802746</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1199</v>
@@ -4283,19 +4283,19 @@
         <v>1243673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1193645</v>
+        <v>1190281</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1296136</v>
+        <v>1294569</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4337412670711646</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4162937794800607</v>
+        <v>0.4151205462784604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4520381453239011</v>
+        <v>0.4514918782636505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2232</v>
@@ -4304,19 +4304,19 @@
         <v>2330077</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2254485</v>
+        <v>2245166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2412837</v>
+        <v>2404502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4212264967055541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4075612024512862</v>
+        <v>0.4058764407552984</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4361876694674531</v>
+        <v>0.4346809050436202</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1577929</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1527960</v>
+        <v>1522486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1629820</v>
+        <v>1630306</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.592241709490065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5734870286506095</v>
+        <v>0.5714322385197254</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.611717678189197</v>
+        <v>0.611900107159145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1528</v>
@@ -4354,19 +4354,19 @@
         <v>1623642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1571179</v>
+        <v>1572746</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1673670</v>
+        <v>1677034</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5662587329288354</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5479618546760989</v>
+        <v>0.5485081217363496</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5837062205199394</v>
+        <v>0.5848794537215398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3025</v>
@@ -4375,19 +4375,19 @@
         <v>3201571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3118811</v>
+        <v>3127146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3277163</v>
+        <v>3286482</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5787735032944459</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5638123305325469</v>
+        <v>0.5653190949563798</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5924387975487139</v>
+        <v>0.5941235592447016</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>332643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>305005</v>
+        <v>305305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>361557</v>
+        <v>362100</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5043626178318967</v>
+        <v>0.5043626178318966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4624571539689706</v>
+        <v>0.462912241943818</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5482037783642491</v>
+        <v>0.5490264222729274</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>626</v>
@@ -4740,19 +4740,19 @@
         <v>374162</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>352494</v>
+        <v>350498</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>397705</v>
+        <v>394883</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5298622666321813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4991781323908623</v>
+        <v>0.4963508025969535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5632031454916793</v>
+        <v>0.559206890439521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>973</v>
@@ -4761,19 +4761,19 @@
         <v>706804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>669294</v>
+        <v>671374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>740386</v>
+        <v>745760</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5175476579939375</v>
+        <v>0.5175476579939374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.490081472895537</v>
+        <v>0.4916041836413542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5421373715161277</v>
+        <v>0.54607231211129</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>326888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>297974</v>
+        <v>297431</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354526</v>
+        <v>354226</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4956373821681033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4517962216357511</v>
+        <v>0.4509735777270727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5375428460310283</v>
+        <v>0.5370877580561821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>571</v>
@@ -4811,19 +4811,19 @@
         <v>331987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308444</v>
+        <v>311266</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353655</v>
+        <v>355651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4701377333678187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4367968545083207</v>
+        <v>0.4407931095604796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5008218676091378</v>
+        <v>0.5036491974030467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>920</v>
@@ -4832,19 +4832,19 @@
         <v>658876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>625294</v>
+        <v>619920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>696386</v>
+        <v>694306</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4824523420060626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4578626284838721</v>
+        <v>0.4539276878887101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5099185271044629</v>
+        <v>0.5083958163586457</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>605649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>566731</v>
+        <v>569907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>642266</v>
+        <v>642929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5954486231164484</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5571854465614916</v>
+        <v>0.5603079127683736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6314482006141301</v>
+        <v>0.6321003108554754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>908</v>
@@ -4957,19 +4957,19 @@
         <v>648119</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>619083</v>
+        <v>622335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>672192</v>
+        <v>677184</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6185614239728034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5908502376050274</v>
+        <v>0.593953998413418</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.641536381644244</v>
+        <v>0.6463007007238873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1450</v>
@@ -4978,19 +4978,19 @@
         <v>1253768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1207002</v>
+        <v>1211002</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1300595</v>
+        <v>1300608</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6071765722237125</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5845287674011175</v>
+        <v>0.586465979278215</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6298538466175718</v>
+        <v>0.6298601128960041</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>411482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>374865</v>
+        <v>374202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>450400</v>
+        <v>447224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4045513768835515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3685517993858699</v>
+        <v>0.3678996891445246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4428145534385085</v>
+        <v>0.4396920872316264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -5028,19 +5028,19 @@
         <v>399665</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>375592</v>
+        <v>370600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>428701</v>
+        <v>425449</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3814385760271966</v>
+        <v>0.3814385760271965</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3584636183557562</v>
+        <v>0.353699299276113</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4091497623949729</v>
+        <v>0.4060460015865819</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>973</v>
@@ -5049,19 +5049,19 @@
         <v>811147</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>764320</v>
+        <v>764307</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857913</v>
+        <v>853913</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3928234277762876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3701461533824283</v>
+        <v>0.3701398871039959</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4154712325988825</v>
+        <v>0.4135340207217848</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>418344</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>387108</v>
+        <v>385661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>452178</v>
+        <v>448854</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5404902622774754</v>
+        <v>0.5404902622774755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5001337617614277</v>
+        <v>0.498264771360193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5842033438283892</v>
+        <v>0.5799082891778485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>561</v>
@@ -5174,19 +5174,19 @@
         <v>436331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>407717</v>
+        <v>410669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>464667</v>
+        <v>460821</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5486058078785663</v>
+        <v>0.5486058078785664</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5126289896246594</v>
+        <v>0.5163405443387978</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5842336557694126</v>
+        <v>0.5793973856306273</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>927</v>
@@ -5195,19 +5195,19 @@
         <v>854675</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>818409</v>
+        <v>812171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>898683</v>
+        <v>894439</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5446032066761682</v>
+        <v>0.5446032066761681</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5214946645359183</v>
+        <v>0.5175198154758816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5726455040980023</v>
+        <v>0.5699413114893697</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>355664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>321830</v>
+        <v>325154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>386900</v>
+        <v>388347</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4595097377225245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.415796656171611</v>
+        <v>0.4200917108221516</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4998662382385724</v>
+        <v>0.5017352286398076</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>463</v>
@@ -5245,19 +5245,19 @@
         <v>359014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330678</v>
+        <v>334524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>387628</v>
+        <v>384676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4513941921214336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4157663442305879</v>
+        <v>0.4206026143693727</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4873710103753409</v>
+        <v>0.4836594556612023</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>752</v>
@@ -5266,19 +5266,19 @@
         <v>714678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>670670</v>
+        <v>674914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>750944</v>
+        <v>757182</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4553967933238318</v>
+        <v>0.4553967933238317</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4273544959019976</v>
+        <v>0.4300586885106303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4785053354640814</v>
+        <v>0.4824801845241184</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>582694</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>547672</v>
+        <v>551058</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>611640</v>
+        <v>612136</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6146826119282564</v>
+        <v>0.6146826119282562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5777375995359413</v>
+        <v>0.5813096699767153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6452176943014043</v>
+        <v>0.6457414758682376</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>940</v>
@@ -5391,19 +5391,19 @@
         <v>685185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>657239</v>
+        <v>657906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>713351</v>
+        <v>713191</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6366881931285263</v>
+        <v>0.6366881931285264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6107199658765879</v>
+        <v>0.6113398728782423</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6628606240947538</v>
+        <v>0.6627122662065533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1507</v>
@@ -5412,19 +5412,19 @@
         <v>1267879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1222120</v>
+        <v>1224485</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1307475</v>
+        <v>1309994</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6263823327255997</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6037758991116082</v>
+        <v>0.604944233615581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.645944450457033</v>
+        <v>0.6471889080890412</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>365265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336319</v>
+        <v>335823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>400287</v>
+        <v>396901</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3853173880717435</v>
+        <v>0.3853173880717436</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3547823056985956</v>
+        <v>0.3542585241317625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4222624004640586</v>
+        <v>0.4186903300232844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>570</v>
@@ -5462,19 +5462,19 @@
         <v>390985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>362819</v>
+        <v>362979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>418931</v>
+        <v>418264</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3633118068714735</v>
+        <v>0.3633118068714736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3371393759052463</v>
+        <v>0.3372877337934461</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3892800341234121</v>
+        <v>0.3886601271217575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>969</v>
@@ -5483,19 +5483,19 @@
         <v>756250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>716654</v>
+        <v>714135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>802009</v>
+        <v>799644</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3736176672744003</v>
+        <v>0.3736176672744002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.354055549542967</v>
+        <v>0.3528110919109587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3962241008883916</v>
+        <v>0.395055766384419</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1939330</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1873676</v>
+        <v>1873421</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2000523</v>
+        <v>2002211</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5706211980050084</v>
+        <v>0.5706211980050083</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5513034086912294</v>
+        <v>0.5512283116340027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5886264517079237</v>
+        <v>0.589123078260266</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3035</v>
@@ -5608,19 +5608,19 @@
         <v>2143796</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2087126</v>
+        <v>2090694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2188064</v>
+        <v>2195409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5913189460291317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5756877819708106</v>
+        <v>0.5766719293248871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6035292271817231</v>
+        <v>0.6055551472652901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4857</v>
@@ -5629,19 +5629,19 @@
         <v>4083126</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3993767</v>
+        <v>4000646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4162089</v>
+        <v>4170474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5813042536817647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.568582488074257</v>
+        <v>0.5695617549412899</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5925460956111541</v>
+        <v>0.5937397270546808</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1459299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1398106</v>
+        <v>1396418</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1524953</v>
+        <v>1525208</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4293788019949916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4113735482920763</v>
+        <v>0.4108769217397341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4486965913087708</v>
+        <v>0.4487716883659974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2182</v>
@@ -5679,19 +5679,19 @@
         <v>1481652</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1437384</v>
+        <v>1430039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1538322</v>
+        <v>1534754</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4086810539708682</v>
+        <v>0.4086810539708681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3964707728182769</v>
+        <v>0.3944448527347099</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4243122180291892</v>
+        <v>0.4233280706751129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3614</v>
@@ -5700,19 +5700,19 @@
         <v>2940951</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2861988</v>
+        <v>2853603</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3030310</v>
+        <v>3023431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4186957463182352</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.407453904388846</v>
+        <v>0.4062602729453191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4314175119257428</v>
+        <v>0.4304382450587099</v>
       </c>
     </row>
     <row r="18">
